--- a/data/d1.xlsx
+++ b/data/d1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eledah\Documents\Uni\tpmaxflow-py\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85EEC5FD-6752-4EEC-AF33-26D5CDBB3A39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6E8F3C-80FC-40AB-B998-981201E2C6F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="d1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -854,22 +854,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7499"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D7499"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>5000</v>
       </c>
       <c r="B1">
         <v>7498</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -880,7 +888,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -891,7 +899,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -902,7 +910,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -913,7 +921,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -924,7 +932,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -935,7 +943,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -946,7 +954,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -957,7 +965,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -968,7 +976,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -979,7 +987,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -990,7 +998,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1001,7 +1009,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1012,7 +1020,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1023,7 +1031,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
